--- a/excel_reports/prod_report_3.xlsx
+++ b/excel_reports/prod_report_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,17 +436,27 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>price_brackets</t>
+          <t>price_bracket</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Min price to Max Price</t>
+          <t>min_price</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Total # of Products</t>
+          <t>max_price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>range</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>total_products</t>
         </is>
       </c>
     </row>
@@ -456,14 +466,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$2 to $50</t>
+          <t>$2.29 to $69.99</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>47.7</v>
+        <v>2.29</v>
       </c>
       <c r="D2" t="n">
-        <v>127</v>
+        <v>69.98999999999999</v>
+      </c>
+      <c r="E2" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="F2" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -472,14 +488,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$50 to $330</t>
+          <t>$69.99 to $337.22</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>280.07</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>223</v>
+        <v>337.22</v>
+      </c>
+      <c r="E3" t="n">
+        <v>267.23</v>
+      </c>
+      <c r="F3" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -488,14 +510,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$330 to $1K</t>
+          <t>$337.22 to $1079.99</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>670.49</v>
+        <v>337.22</v>
       </c>
       <c r="D4" t="n">
-        <v>760</v>
+        <v>1079.99</v>
+      </c>
+      <c r="E4" t="n">
+        <v>742.77</v>
+      </c>
+      <c r="F4" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -504,14 +532,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$1K to $3.5K</t>
+          <t>$1079.99 to $3578.27</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2574.36</v>
+        <v>1079.99</v>
       </c>
       <c r="D5" t="n">
-        <v>520</v>
+        <v>3578.27</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2498.28</v>
+      </c>
+      <c r="F5" t="n">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
